--- a/groupe/audit-site-internet.xlsx
+++ b/groupe/audit-site-internet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlotte/Documents/04 - Blog/Modèles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asa\trimeta\Audit\groupe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5737D1-59B6-44E7-9E2E-85C3D801DC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="1960" windowWidth="28960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="1" r:id="rId1"/>
@@ -203,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="12"/>
@@ -341,17 +342,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,6 +357,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,55 +383,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4292599</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>681753</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924C9D70-7665-864F-888B-216F8E86B484}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4292599" y="228600"/>
-          <a:ext cx="2425701" cy="453153"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -729,455 +681,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="63.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="63.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
     <col min="4" max="4" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="70" customHeight="1">
+    <row r="1" spans="1:4" ht="69.95" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="24">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="23.25">
+      <c r="A2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="51" customHeight="1">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" ht="32">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="31.5">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" ht="19">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" ht="19">
-      <c r="A21" s="5" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.75">
+      <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" ht="32">
-      <c r="A23" s="6" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="31.5">
+      <c r="A23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4" ht="32">
-      <c r="A26" s="6" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" ht="31.5">
+      <c r="A26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:4" ht="19">
-      <c r="A28" s="5" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="18.75">
+      <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" ht="19">
-      <c r="A35" s="5" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" ht="18.75">
+      <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="1:4" ht="17" customHeight="1">
-      <c r="A37" s="6" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" ht="17.100000000000001" customHeight="1">
+      <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" ht="19">
-      <c r="A42" s="5" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" ht="18.75">
+      <c r="A42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-    </row>
-    <row r="44" spans="1:4" ht="32">
-      <c r="A44" s="6" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" ht="31.5">
+      <c r="A44" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="1:4" ht="32">
-      <c r="A45" s="6" t="s">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" ht="31.5">
+      <c r="A45" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" ht="19">
-      <c r="A51" s="5" t="s">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" ht="18.75">
+      <c r="A51" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="1:4" ht="46" customHeight="1">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+    </row>
+    <row r="58" spans="1:4" ht="45.95" customHeight="1">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1185,6 +1137,5 @@
     <mergeCell ref="A57:D58"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>